--- a/python_automation/MICRO jan.xlsx
+++ b/python_automation/MICRO jan.xlsx
@@ -633,24 +633,25 @@
   </sheetPr>
   <dimension ref="A1:AO1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X27" activeCellId="45" sqref="A38:B38 A145:A180 B145:B170 B173 B176 B178 C145:E180 D2:I2 D38:H38 F40:F180 G145:G180 H50:H180 I83:I180 J38:N38 J145:J169 J171:AC180 K40:K169 L2:P2 L41:L169 M48:M169 N50:N169 O17:O18 O24:O26 O28:P28 O31:O34 O36 O38:O39 O42 O44:O45 O54:O169 P18 P25:P26 P34:Q34 P38:Q38 P58:P169 Q2:Q3 Q7 Q14 Q20 Q25:Q28 Q45 Q48 Q54 Q61:Q169 R145:W169 X2:X169 Y145:AC169 AD145:AO180"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="32.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="1" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="1" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="13" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.26"/>
@@ -679,7 +680,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="46" style="1" width="8.7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
